--- a/doc/pin_assignment.xlsx
+++ b/doc/pin_assignment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Git\memmert_pcb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598EBE4A-59D6-4B33-8C80-17028FBAC18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751E8F36-6F24-4150-9F1D-00E78DDA1FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2435CEFF-4785-4461-8C3D-23B2A26A6BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2435CEFF-4785-4461-8C3D-23B2A26A6BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
   <si>
     <t>Pin</t>
   </si>
@@ -571,13 +569,19 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>ÎCSP Clock</t>
+  </si>
+  <si>
+    <t>ICSP Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,8 +596,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +618,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -701,11 +718,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,8 +768,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1100,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8992B968-7174-49BC-A0AA-14CA1BB123BF}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1386,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1371,13 +1406,15 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1401,7 +1438,9 @@
       <c r="I13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
